--- a/data/population_data.xlsx
+++ b/data/population_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyannehalford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyannehalford/Documents/Documents/Job Hunt/Blog/population_visualizations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7562E20-9FC0-3447-B7A3-8C7A9156FD4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B15C464-89DB-DB4E-92B2-E5E6FC5685BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19640" yWindow="-3140" windowWidth="19620" windowHeight="21080" xr2:uid="{FF10A174-1C00-7541-A1AB-8430E38EC5BD}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>la</t>
   </si>
   <si>
-    <t>pheonix</t>
-  </si>
-  <si>
     <t>newark</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>seattle</t>
+  </si>
+  <si>
+    <t>phoenix</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C1FF5B-E357-2945-96EC-ED7B2A7A77E2}">
   <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1955,7 +1955,7 @@
         <v>240</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>1708</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1977,7 +1977,7 @@
         <v>3152</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
         <v>5544</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>11314</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
         <v>29053</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>48118</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2032,7 +2032,7 @@
         <v>65414</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2043,7 +2043,7 @@
         <v>106818</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
         <v>439170</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2065,7 +2065,7 @@
         <v>581572</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2076,7 +2076,7 @@
         <v>789704</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
         <v>983403</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2098,7 +2098,7 @@
         <v>1321045</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,7 +2109,7 @@
         <v>1445632</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,7 +2120,7 @@
         <v>8008</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
         <v>6507</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
         <v>10953</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>17290</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
         <v>38894</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>71941</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>105059</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2197,7 +2197,7 @@
         <v>136508</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2208,7 +2208,7 @@
         <v>181830</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <v>246070</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>347469</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>414524</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2252,7 +2252,7 @@
         <v>442337</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2263,7 +2263,7 @@
         <v>429760</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
         <v>438776</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2285,7 +2285,7 @@
         <v>405220</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2296,7 +2296,7 @@
         <v>381930</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
         <v>329248</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2318,7 +2318,7 @@
         <v>275221</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2329,7 +2329,7 @@
         <v>273546</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2340,7 +2340,7 @@
         <v>277140</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,7 +2351,7 @@
         <v>1000</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2362,7 +2362,7 @@
         <v>25000</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,7 +2373,7 @@
         <v>34776</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,7 +2384,7 @@
         <v>56802</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,7 +2395,7 @@
         <v>149473</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>233959</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2417,7 +2417,7 @@
         <v>298997</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>342782</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,7 +2439,7 @@
         <v>416912</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,7 +2450,7 @@
         <v>506676</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>634394</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>634536</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2483,7 +2483,7 @@
         <v>775357</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>740316</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,7 +2505,7 @@
         <v>715674</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
         <v>678974</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,7 +2527,7 @@
         <v>723959</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,7 +2538,7 @@
         <v>776733</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
         <v>805235</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2560,7 +2560,7 @@
         <v>188</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,7 +2571,7 @@
         <v>1107</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,7 +2582,7 @@
         <v>3533</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -2593,7 +2593,7 @@
         <v>42837</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -2604,7 +2604,7 @@
         <v>80671</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2615,7 +2615,7 @@
         <v>237194</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2626,7 +2626,7 @@
         <v>315312</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
         <v>365583</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,7 +2648,7 @@
         <v>368302</v>
       </c>
       <c r="C200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>467591</v>
       </c>
       <c r="C201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2670,7 +2670,7 @@
         <v>557087</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>530831</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2692,7 +2692,7 @@
         <v>493846</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2703,7 +2703,7 @@
         <v>516259</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,7 +2714,7 @@
         <v>563374</v>
       </c>
       <c r="C206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2725,7 +2725,7 @@
         <v>608660</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
